--- a/SimulationStudyData/Model5/SimCase29_Zsim_SimRun3.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Zsim_SimRun3.xlsx
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -471,13 +471,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -582,48 +582,48 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -695,51 +695,51 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -791,89 +791,89 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -887,25 +887,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -919,34 +919,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -983,34 +983,34 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1021,13 +1021,13 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1082,31 +1082,31 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1158,33 +1158,33 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1318,19 +1318,19 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1376,54 +1376,54 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1463,66 +1463,66 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1551,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1562,31 +1562,31 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1606,19 +1606,19 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1702,19 +1702,19 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1731,30 +1731,30 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1836,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1911,51 +1911,51 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1975,28 +1975,28 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2007,22 +2007,22 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2051,22 +2051,22 @@
         <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2083,22 +2083,22 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2115,22 +2115,22 @@
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2167,48 +2167,48 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2327,34 +2327,34 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -2391,13 +2391,13 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -2418,39 +2418,39 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2482,39 +2482,39 @@
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2534,19 +2534,19 @@
         <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2560,25 +2560,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2615,34 +2615,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2662,51 +2662,51 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -2749,28 +2749,28 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2863,10 +2863,10 @@
         <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2903,7 +2903,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3008,22 +3008,22 @@
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3087,42 +3087,42 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -3159,34 +3159,34 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3206,19 +3206,19 @@
         <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -3267,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3302,33 +3302,33 @@
         <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -3357,60 +3357,60 @@
         <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3421,16 +3421,16 @@
         <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3447,10 +3447,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -3494,33 +3494,33 @@
         <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -3564,13 +3564,13 @@
         <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -3584,25 +3584,25 @@
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3616,115 +3616,115 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3773,60 +3773,60 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -3849,16 +3849,16 @@
         <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -3890,7 +3890,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -4023,95 +4023,95 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>2</v>
@@ -4119,25 +4119,25 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4151,34 +4151,34 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4195,22 +4195,22 @@
         <v>2</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4236,77 +4236,77 @@
         <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4375,34 +4375,34 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -4457,13 +4457,13 @@
         <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
         <v>2</v>
@@ -4486,19 +4486,19 @@
         <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -4524,45 +4524,45 @@
         <v>2</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4599,34 +4599,34 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -4637,28 +4637,28 @@
         <v>2</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4748,13 +4748,13 @@
         <v>2</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -4768,25 +4768,25 @@
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -4794,31 +4794,31 @@
         <v>1</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -4829,10 +4829,10 @@
         <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -4855,19 +4855,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -4887,48 +4887,48 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4960,36 +4960,36 @@
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>2</v>
@@ -5079,31 +5079,31 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -5152,109 +5152,109 @@
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5309,28 +5309,28 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -5399,22 +5399,22 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -5431,57 +5431,57 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -5495,22 +5495,22 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -5542,10 +5542,10 @@
         <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>2</v>
@@ -5577,36 +5577,36 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -5626,25 +5626,25 @@
         <v>2</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -5658,31 +5658,31 @@
         <v>2</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
         <v>2</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -5760,25 +5760,25 @@
         <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -5786,25 +5786,25 @@
         <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -5856,30 +5856,30 @@
         <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -5970,39 +5970,39 @@
         <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6028,13 +6028,13 @@
         <v>2</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -6063,10 +6063,10 @@
         <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6080,51 +6080,51 @@
         <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -6135,66 +6135,66 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6205,28 +6205,28 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -6249,16 +6249,16 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -6284,13 +6284,13 @@
         <v>2</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6327,34 +6327,34 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6415,10 +6415,10 @@
         <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6435,22 +6435,22 @@
         <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -6487,7 +6487,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6528,25 +6528,25 @@
         <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -6601,48 +6601,48 @@
         <v>2</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -6653,19 +6653,19 @@
         <v>2</v>
       </c>
       <c r="C197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
@@ -6679,34 +6679,34 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6726,19 +6726,19 @@
         <v>2</v>
       </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6793,16 +6793,16 @@
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
